--- a/Organisatorisches/FuckUps_GoodThings/Fuck Ups.xlsx
+++ b/Organisatorisches/FuckUps_GoodThings/Fuck Ups.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\4.Klasse\SYP\Planet Evolution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Mazanek\Desktop\Schule\4.Klasse\SYP\Planet.Shop\Organisatorisches\FuckUps_GoodThings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Datum</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>ProductRequestHandler nicht geschafft</t>
+  </si>
+  <si>
+    <t>26.2.</t>
+  </si>
+  <si>
+    <t>Sprint Planning nicht abgegeben?</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,8 +534,15 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>

--- a/Organisatorisches/FuckUps_GoodThings/Fuck Ups.xlsx
+++ b/Organisatorisches/FuckUps_GoodThings/Fuck Ups.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Mazanek\Desktop\Schule\4.Klasse\SYP\Planet.Shop\Organisatorisches\FuckUps_GoodThings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\4.Klasse\SYP\Planet.Shop\Organisatorisches\FuckUps_GoodThings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628" xr2:uid="{DCB66D2B-4139-479B-8E2A-7C0414A7A2F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5628"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Datum</t>
   </si>
@@ -72,12 +72,18 @@
   </si>
   <si>
     <t>Sprint Planning nicht abgegeben?</t>
+  </si>
+  <si>
+    <t>16.04.</t>
+  </si>
+  <si>
+    <t>Sprint Planning nicht abgegeben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9623562E-7925-4742-973B-6FCA507D4368}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,8 +551,15 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
